--- a/Master Thesis/Assets/xml/Datenanalyse Blöcke anonym.xlsx
+++ b/Master Thesis/Assets/xml/Datenanalyse Blöcke anonym.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\nikolaiglaab\Master Thesis\Assets\xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F0F1DA-E82D-4EC0-A60B-09F04C52F628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A017C67-C2D4-4199-9E18-55D67800CC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="2" xr2:uid="{D854D1AB-4D43-4BED-8A15-5983D3C3A8EE}"/>
+    <workbookView xWindow="-28920" yWindow="135" windowWidth="29040" windowHeight="15840" xr2:uid="{D854D1AB-4D43-4BED-8A15-5983D3C3A8EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Punktzahlen (T-Test)" sheetId="3" r:id="rId1"/>
@@ -21,27 +21,7 @@
     <definedName name="_xlchart.v1.0" hidden="1">Präzisionswerte!$B$10</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Präzisionswerte!$B$11</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Präzisionswerte!$B$5</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">Reaktionszeiten!$B$5</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">Reaktionszeiten!$B$6</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">Reaktionszeiten!$B$7</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">Reaktionszeiten!$B$8</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">Reaktionszeiten!$B$9</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">Reaktionszeiten!$C$10:$AF$10</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">Reaktionszeiten!$C$11:$AF$11</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">Reaktionszeiten!$C$12:$AF$12</definedName>
-    <definedName name="_xlchart.v1.108" hidden="1">Reaktionszeiten!$C$13:$AF$13</definedName>
-    <definedName name="_xlchart.v1.109" hidden="1">Reaktionszeiten!$C$14:$AF$14</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Präzisionswerte!$B$6</definedName>
-    <definedName name="_xlchart.v1.110" hidden="1">Reaktionszeiten!$C$15:$AF$15</definedName>
-    <definedName name="_xlchart.v1.111" hidden="1">Reaktionszeiten!$C$16:$AF$16</definedName>
-    <definedName name="_xlchart.v1.112" hidden="1">Reaktionszeiten!$C$17:$AF$17</definedName>
-    <definedName name="_xlchart.v1.113" hidden="1">Reaktionszeiten!$C$18:$AF$18</definedName>
-    <definedName name="_xlchart.v1.114" hidden="1">Reaktionszeiten!$C$4:$AF$4</definedName>
-    <definedName name="_xlchart.v1.115" hidden="1">Reaktionszeiten!$C$5:$AF$5</definedName>
-    <definedName name="_xlchart.v1.116" hidden="1">Reaktionszeiten!$C$6:$AF$6</definedName>
-    <definedName name="_xlchart.v1.117" hidden="1">Reaktionszeiten!$C$7:$AF$7</definedName>
-    <definedName name="_xlchart.v1.118" hidden="1">Reaktionszeiten!$C$8:$AF$8</definedName>
-    <definedName name="_xlchart.v1.119" hidden="1">Reaktionszeiten!$C$9:$AF$9</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Präzisionswerte!$B$7</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Präzisionswerte!$B$8</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Präzisionswerte!$B$9</definedName>
@@ -95,49 +75,9 @@
     <definedName name="_xlchart.v1.58" hidden="1">Reaktionszeiten!$C$8:$AF$8</definedName>
     <definedName name="_xlchart.v1.59" hidden="1">Reaktionszeiten!$C$9:$AF$9</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Präzisionswerte!$B$16</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Reaktionszeiten!$B$10</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Reaktionszeiten!$B$11</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Reaktionszeiten!$B$12</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Reaktionszeiten!$B$13</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Reaktionszeiten!$B$14</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Reaktionszeiten!$B$15</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Reaktionszeiten!$B$16</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Reaktionszeiten!$B$17</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Reaktionszeiten!$B$18</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Reaktionszeiten!$B$4</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Präzisionswerte!$B$17</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Reaktionszeiten!$B$5</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Reaktionszeiten!$B$6</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Reaktionszeiten!$B$7</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Reaktionszeiten!$B$8</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Reaktionszeiten!$B$9</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Reaktionszeiten!$C$10:$AF$10</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Reaktionszeiten!$C$11:$AF$11</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Reaktionszeiten!$C$12:$AF$12</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Reaktionszeiten!$C$13:$AF$13</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">Reaktionszeiten!$C$14:$AF$14</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Präzisionswerte!$B$18</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">Reaktionszeiten!$C$15:$AF$15</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">Reaktionszeiten!$C$16:$AF$16</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">Reaktionszeiten!$C$17:$AF$17</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">Reaktionszeiten!$C$18:$AF$18</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">Reaktionszeiten!$C$4:$AF$4</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">Reaktionszeiten!$C$5:$AF$5</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">Reaktionszeiten!$C$6:$AF$6</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">Reaktionszeiten!$C$7:$AF$7</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">Reaktionszeiten!$C$8:$AF$8</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">Reaktionszeiten!$C$9:$AF$9</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Präzisionswerte!$B$4</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">Reaktionszeiten!$B$10</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">Reaktionszeiten!$B$11</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">Reaktionszeiten!$B$12</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">Reaktionszeiten!$B$13</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">Reaktionszeiten!$B$14</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">Reaktionszeiten!$B$15</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">Reaktionszeiten!$B$16</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">Reaktionszeiten!$B$17</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">Reaktionszeiten!$B$18</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">Reaktionszeiten!$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -180,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="100">
   <si>
     <t>Block 1</t>
   </si>
@@ -216,51 +156,6 @@
   </si>
   <si>
     <t>Index</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>Frederik</t>
-  </si>
-  <si>
-    <t>Tobias</t>
-  </si>
-  <si>
-    <t>Franziska</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Elisabeth</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Maxim</t>
-  </si>
-  <si>
-    <t>Julika</t>
-  </si>
-  <si>
-    <t>Holger</t>
-  </si>
-  <si>
-    <t>Philipp</t>
-  </si>
-  <si>
-    <t>Ludwig</t>
-  </si>
-  <si>
-    <t>Corinna</t>
-  </si>
-  <si>
-    <t>Lui</t>
-  </si>
-  <si>
-    <t>Daniel</t>
   </si>
   <si>
     <t>Präzision L</t>
@@ -386,9 +281,6 @@
     <t>Rangkorrelationskoeffizient r</t>
   </si>
   <si>
-    <t>2-Stichproben-t-Test</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Shapiro-Wilk-Test</t>
   </si>
   <si>
@@ -443,67 +335,7 @@
     <t>Verwerfungsbereich B:</t>
   </si>
   <si>
-    <t>µ(Block9) ≥ µ(Block10)</t>
-  </si>
-  <si>
-    <t>µ(Block9) &lt; µ(Block10)</t>
-  </si>
-  <si>
-    <t>µ(Block1) ≥ µ(Block6)</t>
-  </si>
-  <si>
-    <t>µ(Block1) &lt; µ(Block6)</t>
-  </si>
-  <si>
-    <r>
-      <t>(2.9768,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>∞)</t>
-    </r>
-  </si>
-  <si>
     <t>mit Freiheitsgrad n-1 = 14</t>
-  </si>
-  <si>
-    <r>
-      <t>(-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>∞, 2.9768)</t>
-    </r>
-  </si>
-  <si>
-    <t>(-∞, 2.9768)</t>
-  </si>
-  <si>
-    <r>
-      <t>(-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>∞, -2.9768)</t>
-    </r>
-  </si>
-  <si>
-    <t>(-∞, -2.9768)</t>
   </si>
   <si>
     <t>H0 wird verworfen</t>
@@ -573,6 +405,44 @@
   </si>
   <si>
     <t>Proband#15</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>2-Stichproben-t-Test (Paardifferenzentest)</t>
+  </si>
+  <si>
+    <r>
+      <t>(2.6244,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∞)</t>
+    </r>
+  </si>
+  <si>
+    <t>Block10 - Block 9</t>
+  </si>
+  <si>
+    <t>Block6 -Block1</t>
+  </si>
+  <si>
+    <t>µ(Block10) ≤ µ(Block9)</t>
+  </si>
+  <si>
+    <t>µ(Block6) ≤ µ(Block1)</t>
+  </si>
+  <si>
+    <t>µ(Block10) &gt; µ(Block9)</t>
+  </si>
+  <si>
+    <t>µ(Block6) &gt; µ(Block1)</t>
   </si>
 </sst>
 </file>
@@ -6599,77 +6469,77 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.84</cx:f>
+        <cx:f dir="row">_xlchart.v1.54</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.85</cx:f>
+        <cx:f dir="row">_xlchart.v1.55</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.86</cx:f>
+        <cx:f dir="row">_xlchart.v1.56</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.87</cx:f>
+        <cx:f dir="row">_xlchart.v1.57</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.88</cx:f>
+        <cx:f dir="row">_xlchart.v1.58</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.89</cx:f>
+        <cx:f dir="row">_xlchart.v1.59</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.75</cx:f>
+        <cx:f dir="row">_xlchart.v1.45</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.76</cx:f>
+        <cx:f dir="row">_xlchart.v1.46</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.77</cx:f>
+        <cx:f dir="row">_xlchart.v1.47</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.78</cx:f>
+        <cx:f dir="row">_xlchart.v1.48</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="10">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.79</cx:f>
+        <cx:f dir="row">_xlchart.v1.49</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="11">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.80</cx:f>
+        <cx:f dir="row">_xlchart.v1.50</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="12">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.81</cx:f>
+        <cx:f dir="row">_xlchart.v1.51</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="13">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.82</cx:f>
+        <cx:f dir="row">_xlchart.v1.52</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="14">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.83</cx:f>
+        <cx:f dir="row">_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6707,7 +6577,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8222DE6F-DE13-4E9D-BE25-FC813A527ECE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.69</cx:f>
+              <cx:f>_xlchart.v1.39</cx:f>
               <cx:v>Proband#1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6720,7 +6590,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4004A02D-EC6C-4C01-984D-6A5CF1138525}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.70</cx:f>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>Proband#2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6733,7 +6603,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FDD3D93A-E145-4555-93F6-5809B55C905B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.71</cx:f>
+              <cx:f>_xlchart.v1.41</cx:f>
               <cx:v>Proband#3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6746,7 +6616,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D84EB3E8-338A-494E-A115-14DC0E9926D7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.72</cx:f>
+              <cx:f>_xlchart.v1.42</cx:f>
               <cx:v>Proband#4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6759,7 +6629,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{232632C2-AAE4-4991-88C4-8C1E85EDBADB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.73</cx:f>
+              <cx:f>_xlchart.v1.43</cx:f>
               <cx:v>Proband#5</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6772,7 +6642,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2260A4E7-EBB1-44AA-912B-06709A1F7F4D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.74</cx:f>
+              <cx:f>_xlchart.v1.44</cx:f>
               <cx:v>Proband#6</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6785,7 +6655,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7A48E158-A608-4084-A0B7-215B15F18EA4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.60</cx:f>
+              <cx:f>_xlchart.v1.30</cx:f>
               <cx:v>Proband#7</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6798,7 +6668,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DBE0310C-19F1-4864-840A-945D57965DDC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.61</cx:f>
+              <cx:f>_xlchart.v1.31</cx:f>
               <cx:v>Proband#8</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6811,7 +6681,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5B1CAE69-64CF-4034-A2BD-F6CD907825E8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.62</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>Proband#9</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6824,7 +6694,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4529ADC2-61C2-4A94-B159-908344AA6ED5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.63</cx:f>
+              <cx:f>_xlchart.v1.33</cx:f>
               <cx:v>Proband#10</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6837,7 +6707,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A2E266C7-13C0-4E01-AD45-7DD6BD8C1F8C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.64</cx:f>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>Proband#11</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6850,7 +6720,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{619CE28B-2FE4-4841-8607-3AD9EF0862A2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.65</cx:f>
+              <cx:f>_xlchart.v1.35</cx:f>
               <cx:v>Proband#12</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6863,7 +6733,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6C38511F-2D0C-480F-AFC6-0294E25479A8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.66</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>Proband#13</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6876,7 +6746,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6BF8712D-729A-4967-9C0D-EA9F5F8C1A4B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.67</cx:f>
+              <cx:f>_xlchart.v1.37</cx:f>
               <cx:v>Proband#14</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6889,7 +6759,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{54BFE7A2-7A61-4EA4-9FA8-CF1A81925A91}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.68</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>Proband#15</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10406,8 +10276,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10698615" y="5653088"/>
-              <a:ext cx="4588329" cy="2805793"/>
+              <a:off x="10685008" y="5531985"/>
+              <a:ext cx="4572001" cy="2745921"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10561,8 +10431,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7180488" y="4446814"/>
-              <a:ext cx="5887812" cy="3505199"/>
+              <a:off x="7173684" y="4352925"/>
+              <a:ext cx="5866041" cy="3428999"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10930,8 +10800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD634A7-68D4-481F-B5F1-247117B88B3E}">
   <dimension ref="A1:AC83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B18"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -10968,7 +10838,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -10980,7 +10850,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -10994,82 +10864,82 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.4">
@@ -11077,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>1326</v>
@@ -11114,12 +10984,12 @@
         <v>49</v>
       </c>
       <c r="N4">
-        <f>K4-L4</f>
-        <v>-102</v>
+        <f>L4-K4</f>
+        <v>102</v>
       </c>
       <c r="O4">
-        <f>C4-H4</f>
-        <v>-188</v>
+        <f>H4-C4</f>
+        <v>188</v>
       </c>
       <c r="Q4">
         <v>1487</v>
@@ -11156,12 +11026,12 @@
         <v>110</v>
       </c>
       <c r="AB4">
-        <f>Y4-Z4</f>
-        <v>11</v>
+        <f>Z4-Y4</f>
+        <v>-11</v>
       </c>
       <c r="AC4">
-        <f>Q4-V4</f>
-        <v>-116</v>
+        <f>V4-Q4</f>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.4">
@@ -11169,7 +11039,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>1126</v>
@@ -11206,12 +11076,12 @@
         <v>92</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N18" si="1">K5-L5</f>
-        <v>-111</v>
+        <f t="shared" ref="N5:N18" si="1">L5-K5</f>
+        <v>111</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O18" si="2">C5-H5</f>
-        <v>-314</v>
+        <f t="shared" ref="O5:O18" si="2">H5-C5</f>
+        <v>314</v>
       </c>
       <c r="Q5">
         <v>1302</v>
@@ -11248,12 +11118,12 @@
         <v>25</v>
       </c>
       <c r="AB5">
-        <f t="shared" ref="AB5:AB18" si="4">Y5-Z5</f>
-        <v>-126</v>
+        <f t="shared" ref="AB5:AB18" si="4">Z5-Y5</f>
+        <v>126</v>
       </c>
       <c r="AC5">
-        <f t="shared" ref="AC5:AC18" si="5">Q5-V5</f>
-        <v>-314</v>
+        <f t="shared" ref="AC5:AC18" si="5">V5-Q5</f>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.4">
@@ -11261,7 +11131,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>748</v>
@@ -11299,11 +11169,11 @@
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>-227</v>
+        <v>227</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>-504</v>
+        <v>504</v>
       </c>
       <c r="Q6">
         <v>1034</v>
@@ -11341,11 +11211,11 @@
       </c>
       <c r="AB6">
         <f t="shared" si="4"/>
-        <v>-204</v>
+        <v>204</v>
       </c>
       <c r="AC6">
         <f t="shared" si="5"/>
-        <v>-410</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.4">
@@ -11353,7 +11223,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>1218</v>
@@ -11391,11 +11261,11 @@
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>-58</v>
+        <v>58</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>-309</v>
+        <v>309</v>
       </c>
       <c r="Q7">
         <v>1346</v>
@@ -11433,11 +11303,11 @@
       </c>
       <c r="AB7">
         <f t="shared" si="4"/>
-        <v>-73</v>
+        <v>73</v>
       </c>
       <c r="AC7">
         <f t="shared" si="5"/>
-        <v>-229</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.4">
@@ -11445,7 +11315,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>1083</v>
@@ -11483,11 +11353,11 @@
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>-137</v>
+        <v>137</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>-193</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>1461</v>
@@ -11525,11 +11395,11 @@
       </c>
       <c r="AB8">
         <f t="shared" si="4"/>
-        <v>-165</v>
+        <v>165</v>
       </c>
       <c r="AC8">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.4">
@@ -11537,7 +11407,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>957</v>
@@ -11575,11 +11445,11 @@
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>-161</v>
+        <v>161</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>-337</v>
+        <v>337</v>
       </c>
       <c r="Q9">
         <v>1239</v>
@@ -11617,11 +11487,11 @@
       </c>
       <c r="AB9">
         <f t="shared" si="4"/>
-        <v>-119</v>
+        <v>119</v>
       </c>
       <c r="AC9">
         <f t="shared" si="5"/>
-        <v>-170</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.4">
@@ -11629,7 +11499,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>1311</v>
@@ -11667,11 +11537,11 @@
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>-71</v>
+        <v>71</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>-174</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>1546</v>
@@ -11709,11 +11579,11 @@
       </c>
       <c r="AB10">
         <f t="shared" si="4"/>
-        <v>-92</v>
+        <v>92</v>
       </c>
       <c r="AC10">
         <f t="shared" si="5"/>
-        <v>-63</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.4">
@@ -11721,7 +11591,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>1123</v>
@@ -11759,11 +11629,11 @@
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>-208</v>
+        <v>208</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>-364</v>
+        <v>364</v>
       </c>
       <c r="Q11">
         <v>1302</v>
@@ -11801,11 +11671,11 @@
       </c>
       <c r="AB11">
         <f t="shared" si="4"/>
-        <v>-215</v>
+        <v>215</v>
       </c>
       <c r="AC11">
         <f t="shared" si="5"/>
-        <v>-310</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.4">
@@ -11813,7 +11683,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>1325</v>
@@ -11851,11 +11721,11 @@
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>-175</v>
+        <v>175</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>-192</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>1494</v>
@@ -11893,11 +11763,11 @@
       </c>
       <c r="AB12">
         <f t="shared" si="4"/>
-        <v>-150</v>
+        <v>150</v>
       </c>
       <c r="AC12">
         <f t="shared" si="5"/>
-        <v>-85</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.4">
@@ -11905,7 +11775,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>802</v>
@@ -11943,11 +11813,11 @@
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>-333</v>
+        <v>333</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>-584</v>
+        <v>584</v>
       </c>
       <c r="Q13">
         <v>1059</v>
@@ -11985,11 +11855,11 @@
       </c>
       <c r="AB13">
         <f t="shared" si="4"/>
-        <v>-261</v>
+        <v>261</v>
       </c>
       <c r="AC13">
         <f t="shared" si="5"/>
-        <v>-507</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.4">
@@ -11997,7 +11867,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>1463</v>
@@ -12035,11 +11905,11 @@
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>-103</v>
+        <v>103</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>-34</v>
+        <v>34</v>
       </c>
       <c r="Q14">
         <v>1521</v>
@@ -12077,11 +11947,11 @@
       </c>
       <c r="AB14">
         <f t="shared" si="4"/>
-        <v>-110</v>
+        <v>110</v>
       </c>
       <c r="AC14">
         <f t="shared" si="5"/>
-        <v>-54</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.4">
@@ -12089,7 +11959,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>1325</v>
@@ -12127,11 +11997,11 @@
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>-105</v>
+        <v>105</v>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>-117</v>
+        <v>117</v>
       </c>
       <c r="Q15">
         <v>1544</v>
@@ -12169,11 +12039,11 @@
       </c>
       <c r="AB15">
         <f t="shared" si="4"/>
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="AC15">
         <f t="shared" si="5"/>
-        <v>-48</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.4">
@@ -12181,7 +12051,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C16">
         <v>983</v>
@@ -12219,11 +12089,11 @@
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>-153</v>
+        <v>153</v>
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
-        <v>-237</v>
+        <v>237</v>
       </c>
       <c r="Q16">
         <v>1258</v>
@@ -12261,11 +12131,11 @@
       </c>
       <c r="AB16">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="AC16">
         <f t="shared" si="5"/>
-        <v>-153</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.4">
@@ -12273,7 +12143,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C17">
         <v>1272</v>
@@ -12311,11 +12181,11 @@
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>-21</v>
+        <v>21</v>
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
-        <v>-286</v>
+        <v>286</v>
       </c>
       <c r="Q17">
         <v>1437</v>
@@ -12353,11 +12223,11 @@
       </c>
       <c r="AB17">
         <f t="shared" si="4"/>
-        <v>-76</v>
+        <v>76</v>
       </c>
       <c r="AC17">
         <f t="shared" si="5"/>
-        <v>-170</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.4">
@@ -12365,7 +12235,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C18">
         <v>1334</v>
@@ -12403,11 +12273,11 @@
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>-34</v>
+        <v>34</v>
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
-        <v>-111</v>
+        <v>111</v>
       </c>
       <c r="Q18">
         <v>1439</v>
@@ -12445,21 +12315,21 @@
       </c>
       <c r="AB18">
         <f t="shared" si="4"/>
-        <v>-43</v>
+        <v>43</v>
       </c>
       <c r="AC18">
         <f t="shared" si="5"/>
-        <v>-110</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.4">
       <c r="M19" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <f>AVERAGE(C4:C18)</f>
@@ -12507,11 +12377,11 @@
       </c>
       <c r="N20">
         <f>AVERAGE(N4:N18)</f>
-        <v>-133.26666666666668</v>
+        <v>133.26666666666668</v>
       </c>
       <c r="O20">
         <f>AVERAGE(O4:O18)</f>
-        <v>-262.93333333333334</v>
+        <v>262.93333333333334</v>
       </c>
       <c r="Q20">
         <f>AVERAGE(Q4:Q18)</f>
@@ -12559,34 +12429,34 @@
       </c>
       <c r="AB20">
         <f t="shared" ref="AB20:AC20" si="8">AVERAGE(AB4:AB18)</f>
-        <v>-113.73333333333333</v>
+        <v>113.73333333333333</v>
       </c>
       <c r="AC20">
         <f t="shared" si="8"/>
-        <v>-180.13333333333333</v>
+        <v>180.13333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.4">
@@ -12594,7 +12464,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="M25">
         <f>M4-M$20</f>
@@ -12602,11 +12472,11 @@
       </c>
       <c r="N25">
         <f>N4-N$20</f>
-        <v>31.26666666666668</v>
+        <v>-31.26666666666668</v>
       </c>
       <c r="O25">
         <f>O4-O$20</f>
-        <v>74.933333333333337</v>
+        <v>-74.933333333333337</v>
       </c>
       <c r="AA25">
         <f>AA4-AA$20</f>
@@ -12614,11 +12484,11 @@
       </c>
       <c r="AB25">
         <f>AB4-AB$20</f>
-        <v>124.73333333333333</v>
+        <v>-124.73333333333333</v>
       </c>
       <c r="AC25">
         <f>AC4-AC$20</f>
-        <v>64.133333333333326</v>
+        <v>-64.133333333333326</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.4">
@@ -12626,7 +12496,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M26">
         <f t="shared" ref="M26:O39" si="9">M5-M$20</f>
@@ -12634,11 +12504,11 @@
       </c>
       <c r="N26">
         <f t="shared" si="9"/>
-        <v>22.26666666666668</v>
+        <v>-22.26666666666668</v>
       </c>
       <c r="O26">
         <f t="shared" si="9"/>
-        <v>-51.066666666666663</v>
+        <v>51.066666666666663</v>
       </c>
       <c r="AA26">
         <f t="shared" ref="AA26:AC39" si="10">AA5-AA$20</f>
@@ -12646,11 +12516,11 @@
       </c>
       <c r="AB26">
         <f t="shared" si="10"/>
-        <v>-12.266666666666666</v>
+        <v>12.266666666666666</v>
       </c>
       <c r="AC26">
         <f t="shared" si="10"/>
-        <v>-133.86666666666667</v>
+        <v>133.86666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.4">
@@ -12658,7 +12528,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="M27">
         <f t="shared" si="9"/>
@@ -12666,11 +12536,11 @@
       </c>
       <c r="N27">
         <f t="shared" si="9"/>
-        <v>-93.73333333333332</v>
+        <v>93.73333333333332</v>
       </c>
       <c r="O27">
         <f t="shared" si="9"/>
-        <v>-241.06666666666666</v>
+        <v>241.06666666666666</v>
       </c>
       <c r="AA27">
         <f t="shared" si="10"/>
@@ -12678,11 +12548,11 @@
       </c>
       <c r="AB27">
         <f t="shared" si="10"/>
-        <v>-90.266666666666666</v>
+        <v>90.266666666666666</v>
       </c>
       <c r="AC27">
         <f t="shared" si="10"/>
-        <v>-229.86666666666667</v>
+        <v>229.86666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.4">
@@ -12690,7 +12560,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="M28">
         <f t="shared" si="9"/>
@@ -12698,11 +12568,11 @@
       </c>
       <c r="N28">
         <f t="shared" si="9"/>
-        <v>75.26666666666668</v>
+        <v>-75.26666666666668</v>
       </c>
       <c r="O28">
         <f t="shared" si="9"/>
-        <v>-46.066666666666663</v>
+        <v>46.066666666666663</v>
       </c>
       <c r="AA28">
         <f t="shared" si="10"/>
@@ -12710,11 +12580,11 @@
       </c>
       <c r="AB28">
         <f t="shared" si="10"/>
-        <v>40.733333333333334</v>
+        <v>-40.733333333333334</v>
       </c>
       <c r="AC28">
         <f t="shared" si="10"/>
-        <v>-48.866666666666674</v>
+        <v>48.866666666666674</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.4">
@@ -12722,7 +12592,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="M29">
         <f t="shared" si="9"/>
@@ -12730,11 +12600,11 @@
       </c>
       <c r="N29">
         <f t="shared" si="9"/>
-        <v>-3.7333333333333201</v>
+        <v>3.7333333333333201</v>
       </c>
       <c r="O29">
         <f t="shared" si="9"/>
-        <v>69.933333333333337</v>
+        <v>-69.933333333333337</v>
       </c>
       <c r="AA29">
         <f t="shared" si="10"/>
@@ -12742,11 +12612,11 @@
       </c>
       <c r="AB29">
         <f t="shared" si="10"/>
-        <v>-51.266666666666666</v>
+        <v>51.266666666666666</v>
       </c>
       <c r="AC29">
         <f t="shared" si="10"/>
-        <v>217.13333333333333</v>
+        <v>-217.13333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.4">
@@ -12754,7 +12624,7 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="M30">
         <f t="shared" si="9"/>
@@ -12762,11 +12632,11 @@
       </c>
       <c r="N30">
         <f t="shared" si="9"/>
-        <v>-27.73333333333332</v>
+        <v>27.73333333333332</v>
       </c>
       <c r="O30">
         <f t="shared" si="9"/>
-        <v>-74.066666666666663</v>
+        <v>74.066666666666663</v>
       </c>
       <c r="AA30">
         <f t="shared" si="10"/>
@@ -12774,11 +12644,11 @@
       </c>
       <c r="AB30">
         <f t="shared" si="10"/>
-        <v>-5.2666666666666657</v>
+        <v>5.2666666666666657</v>
       </c>
       <c r="AC30">
         <f t="shared" si="10"/>
-        <v>10.133333333333326</v>
+        <v>-10.133333333333326</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.4">
@@ -12786,7 +12656,7 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="M31">
         <f t="shared" si="9"/>
@@ -12794,11 +12664,11 @@
       </c>
       <c r="N31">
         <f t="shared" si="9"/>
-        <v>62.26666666666668</v>
+        <v>-62.26666666666668</v>
       </c>
       <c r="O31">
         <f t="shared" si="9"/>
-        <v>88.933333333333337</v>
+        <v>-88.933333333333337</v>
       </c>
       <c r="AA31">
         <f t="shared" si="10"/>
@@ -12806,11 +12676,11 @@
       </c>
       <c r="AB31">
         <f t="shared" si="10"/>
-        <v>21.733333333333334</v>
+        <v>-21.733333333333334</v>
       </c>
       <c r="AC31">
         <f t="shared" si="10"/>
-        <v>117.13333333333333</v>
+        <v>-117.13333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.4">
@@ -12818,7 +12688,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="M32">
         <f t="shared" si="9"/>
@@ -12826,11 +12696,11 @@
       </c>
       <c r="N32">
         <f t="shared" si="9"/>
-        <v>-74.73333333333332</v>
+        <v>74.73333333333332</v>
       </c>
       <c r="O32">
         <f t="shared" si="9"/>
-        <v>-101.06666666666666</v>
+        <v>101.06666666666666</v>
       </c>
       <c r="AA32">
         <f t="shared" si="10"/>
@@ -12838,11 +12708,11 @@
       </c>
       <c r="AB32">
         <f t="shared" si="10"/>
-        <v>-101.26666666666667</v>
+        <v>101.26666666666667</v>
       </c>
       <c r="AC32">
         <f t="shared" si="10"/>
-        <v>-129.86666666666667</v>
+        <v>129.86666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.4">
@@ -12850,7 +12720,7 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="M33">
         <f t="shared" si="9"/>
@@ -12858,11 +12728,11 @@
       </c>
       <c r="N33">
         <f t="shared" si="9"/>
-        <v>-41.73333333333332</v>
+        <v>41.73333333333332</v>
       </c>
       <c r="O33">
         <f t="shared" si="9"/>
-        <v>70.933333333333337</v>
+        <v>-70.933333333333337</v>
       </c>
       <c r="AA33">
         <f t="shared" si="10"/>
@@ -12870,11 +12740,11 @@
       </c>
       <c r="AB33">
         <f t="shared" si="10"/>
-        <v>-36.266666666666666</v>
+        <v>36.266666666666666</v>
       </c>
       <c r="AC33">
         <f t="shared" si="10"/>
-        <v>95.133333333333326</v>
+        <v>-95.133333333333326</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.4">
@@ -12882,7 +12752,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="M34">
         <f t="shared" si="9"/>
@@ -12890,11 +12760,11 @@
       </c>
       <c r="N34">
         <f t="shared" si="9"/>
-        <v>-199.73333333333332</v>
+        <v>199.73333333333332</v>
       </c>
       <c r="O34">
         <f t="shared" si="9"/>
-        <v>-321.06666666666666</v>
+        <v>321.06666666666666</v>
       </c>
       <c r="AA34">
         <f t="shared" si="10"/>
@@ -12902,11 +12772,11 @@
       </c>
       <c r="AB34">
         <f t="shared" si="10"/>
-        <v>-147.26666666666665</v>
+        <v>147.26666666666665</v>
       </c>
       <c r="AC34">
         <f t="shared" si="10"/>
-        <v>-326.86666666666667</v>
+        <v>326.86666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.4">
@@ -12914,7 +12784,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="M35">
         <f t="shared" si="9"/>
@@ -12922,11 +12792,11 @@
       </c>
       <c r="N35">
         <f t="shared" si="9"/>
-        <v>30.26666666666668</v>
+        <v>-30.26666666666668</v>
       </c>
       <c r="O35">
         <f t="shared" si="9"/>
-        <v>228.93333333333334</v>
+        <v>-228.93333333333334</v>
       </c>
       <c r="AA35">
         <f t="shared" si="10"/>
@@ -12934,11 +12804,11 @@
       </c>
       <c r="AB35">
         <f t="shared" si="10"/>
-        <v>3.7333333333333343</v>
+        <v>-3.7333333333333343</v>
       </c>
       <c r="AC35">
         <f t="shared" si="10"/>
-        <v>126.13333333333333</v>
+        <v>-126.13333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.4">
@@ -12946,7 +12816,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="M36">
         <f t="shared" si="9"/>
@@ -12954,11 +12824,11 @@
       </c>
       <c r="N36">
         <f t="shared" si="9"/>
-        <v>28.26666666666668</v>
+        <v>-28.26666666666668</v>
       </c>
       <c r="O36">
         <f t="shared" si="9"/>
-        <v>145.93333333333334</v>
+        <v>-145.93333333333334</v>
       </c>
       <c r="AA36">
         <f t="shared" si="10"/>
@@ -12966,11 +12836,11 @@
       </c>
       <c r="AB36">
         <f t="shared" si="10"/>
-        <v>14.733333333333334</v>
+        <v>-14.733333333333334</v>
       </c>
       <c r="AC36">
         <f t="shared" si="10"/>
-        <v>132.13333333333333</v>
+        <v>-132.13333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.4">
@@ -12978,7 +12848,7 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="M37">
         <f t="shared" si="9"/>
@@ -12986,11 +12856,11 @@
       </c>
       <c r="N37">
         <f t="shared" si="9"/>
-        <v>-19.73333333333332</v>
+        <v>19.73333333333332</v>
       </c>
       <c r="O37">
         <f t="shared" si="9"/>
-        <v>25.933333333333337</v>
+        <v>-25.933333333333337</v>
       </c>
       <c r="AA37">
         <f t="shared" si="10"/>
@@ -12998,11 +12868,11 @@
       </c>
       <c r="AB37">
         <f t="shared" si="10"/>
-        <v>129.73333333333335</v>
+        <v>-129.73333333333335</v>
       </c>
       <c r="AC37">
         <f t="shared" si="10"/>
-        <v>27.133333333333326</v>
+        <v>-27.133333333333326</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.4">
@@ -13010,7 +12880,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="M38">
         <f t="shared" si="9"/>
@@ -13018,11 +12888,11 @@
       </c>
       <c r="N38">
         <f t="shared" si="9"/>
-        <v>112.26666666666668</v>
+        <v>-112.26666666666668</v>
       </c>
       <c r="O38">
         <f t="shared" si="9"/>
-        <v>-23.066666666666663</v>
+        <v>23.066666666666663</v>
       </c>
       <c r="AA38">
         <f t="shared" si="10"/>
@@ -13030,11 +12900,11 @@
       </c>
       <c r="AB38">
         <f t="shared" si="10"/>
-        <v>37.733333333333334</v>
+        <v>-37.733333333333334</v>
       </c>
       <c r="AC38">
         <f t="shared" si="10"/>
-        <v>10.133333333333326</v>
+        <v>-10.133333333333326</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.4">
@@ -13042,7 +12912,7 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="M39">
         <f t="shared" si="9"/>
@@ -13050,11 +12920,11 @@
       </c>
       <c r="N39">
         <f t="shared" si="9"/>
-        <v>99.26666666666668</v>
+        <v>-99.26666666666668</v>
       </c>
       <c r="O39">
         <f t="shared" si="9"/>
-        <v>151.93333333333334</v>
+        <v>-151.93333333333334</v>
       </c>
       <c r="AA39">
         <f t="shared" si="10"/>
@@ -13062,169 +12932,169 @@
       </c>
       <c r="AB39">
         <f t="shared" si="10"/>
-        <v>70.733333333333334</v>
+        <v>-70.733333333333334</v>
       </c>
       <c r="AC39">
         <f t="shared" si="10"/>
-        <v>70.133333333333326</v>
+        <v>-70.133333333333326</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AA43" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AC43" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="Y44" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AA44" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AC44" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="Y45" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AA45" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AC45" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.4">
       <c r="AA48" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AA49" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.4">
       <c r="AA51" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB51" t="s">
         <v>93</v>
       </c>
       <c r="AC51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="M52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O52" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B57" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M58" cm="1">
         <f t="array" ref="M58">SQRT( SUM( (M4:M18-M20)^2) / (14 * 15) )</f>
@@ -13267,7 +13137,7 @@
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="M61">
         <f>M20/M58</f>
@@ -13275,11 +13145,11 @@
       </c>
       <c r="N61">
         <f>N20/N58</f>
-        <v>-6.3543761571193729</v>
+        <v>6.3543761571193729</v>
       </c>
       <c r="O61">
         <f>O20/O58</f>
-        <v>-6.9212507623102075</v>
+        <v>6.9212507623102075</v>
       </c>
       <c r="AA61">
         <f>AA20/AA58</f>
@@ -13287,124 +13157,147 @@
       </c>
       <c r="AB61">
         <f>AB20/AB58</f>
-        <v>-5.640161437476543</v>
+        <v>5.640161437476543</v>
       </c>
       <c r="AC61">
         <f>AC20/AC58</f>
-        <v>-4.6875210751954119</v>
+        <v>4.6875210751954119</v>
       </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.4">
       <c r="M62" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.4">
       <c r="I64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N64" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="O64" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="AB64" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AC64" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="G67" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="G68">
+        <v>0.05</v>
       </c>
       <c r="M68">
-        <f>TINV(0.05,14)</f>
-        <v>2.1447866879178044</v>
+        <f>TINV(G68*2,14)</f>
+        <v>1.7613101357748921</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E69" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="G69">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M69">
-        <f>TINV(0.025,14)</f>
-        <v>2.5095694114933247</v>
+        <f t="shared" ref="M69:M73" si="11">TINV(G69*2,14)</f>
+        <v>2.1447866879178044</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.4">
       <c r="E70" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="G70">
+        <v>0.02</v>
       </c>
       <c r="M70">
-        <f>TINV(0.02,14)</f>
-        <v>2.6244940675900517</v>
+        <f t="shared" si="11"/>
+        <v>2.2637812790119072</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.4">
       <c r="E71" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="G71">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M71">
-        <f>TINV(0.015,14)</f>
-        <v>2.7714298404150832</v>
+        <f t="shared" si="11"/>
+        <v>2.4148977275422219</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.4">
       <c r="E72" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="G72">
+        <v>0.01</v>
       </c>
       <c r="M72">
-        <f>TINV(0.01,14)</f>
-        <v>2.9768427343708348</v>
+        <f t="shared" si="11"/>
+        <v>2.6244940675900517</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.4">
       <c r="E73" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="G73">
+        <v>1E-3</v>
       </c>
       <c r="M73">
-        <f>TINV(0.001,14)</f>
-        <v>4.1404541127382029</v>
+        <f t="shared" si="11"/>
+        <v>3.7873902375233461</v>
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B76" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M79" cm="1">
         <f t="array" ref="M79">SUM( (I4:I18 *J4:J18) ) - 15 * I20 * J20</f>
@@ -13433,7 +13326,7 @@
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M80" cm="1">
         <f t="array" ref="M80">SQRT(SUM( (I4:I18)^2 ) - (15 * (I20^2)) )</f>
@@ -13462,7 +13355,7 @@
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="M81" cm="1">
         <f t="array" ref="M81">SQRT(SUM( (J4:J18)^2 ) - (15 * (J20^2)) )</f>
@@ -13491,7 +13384,7 @@
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="M83">
         <f>M79/(M80*M81)</f>
@@ -13579,7 +13472,7 @@
   <dimension ref="A1:AF20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B18"/>
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -13707,94 +13600,94 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="U2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="V2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="X2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.4">
@@ -13802,7 +13695,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3">
         <v>0.66944459999999995</v>
@@ -13900,7 +13793,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C5" s="5">
         <v>0.5236111</v>
@@ -13998,7 +13891,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3">
         <v>0.44788729999999999</v>
@@ -14096,7 +13989,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C7" s="5">
         <v>0.67428580000000005</v>
@@ -14194,7 +14087,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3">
         <v>0.53098599999999996</v>
@@ -14292,7 +14185,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C9" s="5">
         <v>0.51690150000000001</v>
@@ -14390,7 +14283,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3">
         <v>0.83970590000000001</v>
@@ -14488,7 +14381,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C11" s="5">
         <v>0.63571420000000001</v>
@@ -14586,7 +14479,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3">
         <v>0.83380290000000001</v>
@@ -14684,7 +14577,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C13" s="5">
         <v>0.57096769999999997</v>
@@ -14782,7 +14675,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3">
         <v>0.82222229999999996</v>
@@ -14880,7 +14773,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C15" s="5">
         <v>0.69444439999999996</v>
@@ -14978,7 +14871,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3">
         <v>0.44084509999999999</v>
@@ -15076,7 +14969,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C17" s="5">
         <v>0.68750009999999995</v>
@@ -15174,7 +15067,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3">
         <v>0.68055560000000004</v>
@@ -15269,7 +15162,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <f>AVERAGE(E4:E18)</f>
@@ -15396,8 +15289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B876C72-7899-4444-AD6A-4BC698E6FD04}">
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -15530,94 +15423,94 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="V2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="W2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="X2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="AF2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.4">
@@ -15625,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>1.168253</v>
@@ -15729,7 +15622,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>1.023773</v>
@@ -15833,7 +15726,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>1.1811240000000001</v>
@@ -15937,7 +15830,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>1.0139370000000001</v>
@@ -16041,7 +15934,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>1.261579</v>
@@ -16145,7 +16038,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>1.255681</v>
@@ -16249,7 +16142,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>1.4045799999999999</v>
@@ -16353,7 +16246,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>1.1902649999999999</v>
@@ -16457,7 +16350,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>1.394711</v>
@@ -16561,7 +16454,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>1.3073680000000001</v>
@@ -16665,7 +16558,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>1.161178</v>
@@ -16769,7 +16662,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>1.1304810000000001</v>
@@ -16873,7 +16766,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C16">
         <v>1.1474409999999999</v>
@@ -16977,7 +16870,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C17">
         <v>1.3333950000000001</v>
@@ -17081,7 +16974,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C18">
         <v>1.0076750000000001</v>
@@ -17182,7 +17075,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <f>AVERAGE(E4:E18)</f>
